--- a/biology/Biochimie/Glycéraldéhyde-3-phosphate_déshydrogénase_(ferrédoxine)/Glycéraldéhyde-3-phosphate_déshydrogénase_(ferrédoxine).xlsx
+++ b/biology/Biochimie/Glycéraldéhyde-3-phosphate_déshydrogénase_(ferrédoxine)/Glycéraldéhyde-3-phosphate_déshydrogénase_(ferrédoxine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glyc%C3%A9rald%C3%A9hyde-3-phosphate_d%C3%A9shydrog%C3%A9nase_(ferr%C3%A9doxine)</t>
+          <t>Glycéraldéhyde-3-phosphate_déshydrogénase_(ferrédoxine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Glycéraldéhyde-3-phosphate déshydrogénase à ferrédoxine est une oxydoréductase qui catalyse la réaction :
 D-glycéraldéhyde-3-phosphate + H2O + 2 ferrédoxines oxydées  
         ⇌
     {\displaystyle \rightleftharpoons }
   3-phospho-D-glycérate + 2 H+ + 2 ferrédoxines réduites.
-Cette enzyme fonctionne avec des cofacteurs fer-soufre et de la molybdoptérine liée au tungstène. On pense qu'elle intervient à la place de la glycéraldéhyde-3-phosphate déshydrogénase et peut-être également de la phosphoglycérate kinase dans la glycolyse alternative identifiée chez Pyrococcus furiosus, une archée hyperthermophile[1]. Elle est spécifique au glycéraldéhyde-3-phosphate.
+Cette enzyme fonctionne avec des cofacteurs fer-soufre et de la molybdoptérine liée au tungstène. On pense qu'elle intervient à la place de la glycéraldéhyde-3-phosphate déshydrogénase et peut-être également de la phosphoglycérate kinase dans la glycolyse alternative identifiée chez Pyrococcus furiosus, une archée hyperthermophile. Elle est spécifique au glycéraldéhyde-3-phosphate.
 </t>
         </is>
       </c>
